--- a/7-Gráficos/32. Gráfico de Pareto - Material(1).xlsx
+++ b/7-Gráficos/32. Gráfico de Pareto - Material(1).xlsx
@@ -1,33 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Dropbox\Hashtag (1)\Hashtag\Online\Conteúdos\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\7-Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78DF5925-B167-4957-B1C7-918B0991A091}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F985978-25B9-4785-9F0C-EC1D0ED9F539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F413CF67-74E3-4838-97F2-291472031C57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F413CF67-74E3-4838-97F2-291472031C57}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gabarito" sheetId="1" r:id="rId1"/>
+    <sheet name="Pareto" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Planilha1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Planilha1!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Planilha1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Planilha1!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Planilha1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Planilha1!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Planilha1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Planilha1!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Planilha1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Planilha1!$B$2:$B$10</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Planilha1!$A$2:$A$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Planilha1!$B$2:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pareto!$A$1:$B$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Gabarito!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Gabarito!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Pareto!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Pareto!$B$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Pareto!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Pareto!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Pareto!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Pareto!$B$2:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,14 +35,23 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Produto</t>
   </si>
@@ -84,15 +91,19 @@
   <si>
     <t>Acumulado</t>
   </si>
+  <si>
+    <t>% Acumulado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="&quot;R$&quot;\ #,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -158,10 +169,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +181,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -234,6 +254,58 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C7681E0D-7997-4863-8414-C8D02DF8B107}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Faturamento</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{42FDA461-E481-4D93-A225-3ADEC1D868FA}">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -274,7 +346,555 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -831,8 +1451,91 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3580374" y="83425"/>
-              <a:ext cx="5199192" cy="1838140"/>
+              <a:off x="3575819" y="83425"/>
+              <a:ext cx="5172687" cy="1838140"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F59183-1F7C-0650-B3C2-BF2F85EE22BA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4562475" y="61912"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -866,9 +1569,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -906,7 +1609,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1012,7 +1715,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1154,7 +1857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1164,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB9CA6C-009B-4C38-B0E0-2D027CA18C78}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,11 +2037,194 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B10">
     <sortCondition descending="1" ref="B2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8B5153-AD68-419B-BDD1-9FFF33A2C174}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="4" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2141500</v>
+      </c>
+      <c r="C2" s="6">
+        <f>B2</f>
+        <v>2141500</v>
+      </c>
+      <c r="D2" s="8">
+        <f>C2/$C$10</f>
+        <v>0.25255026829412114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1742500</v>
+      </c>
+      <c r="C3" s="6">
+        <f xml:space="preserve"> B3 + C2</f>
+        <v>3884000</v>
+      </c>
+      <c r="D3" s="8">
+        <f>C3/$C$10</f>
+        <v>0.45804587534642371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1660500</v>
+      </c>
+      <c r="C4" s="6">
+        <f xml:space="preserve"> B4 + C3</f>
+        <v>5544500</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D10" si="0">C4/$C$10</f>
+        <v>0.65387110089038269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1293500</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ref="C4:C10" si="1" xml:space="preserve"> B5 + C4</f>
+        <v>6838000</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.80641547261041335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6">
+        <v>573000</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>7411000</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.87399021168700985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6">
+        <v>347000</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>7758000</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.91491243587475679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>321000</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>8079000</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.95276844153546791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>245500</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
+        <v>8324500</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.98172062031959428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6">
+        <v>155000</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
+        <v>8479500</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{4D8B5153-AD68-419B-BDD1-9FFF33A2C174}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B10">
+      <sortCondition descending="1" ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>